--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H2">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I2">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J2">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>158.44488</v>
+        <v>194.2587713333333</v>
       </c>
       <c r="N2">
-        <v>475.33464</v>
+        <v>582.776314</v>
       </c>
       <c r="O2">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="P2">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="Q2">
-        <v>29.55060389952</v>
+        <v>139.2825677521433</v>
       </c>
       <c r="R2">
-        <v>265.95543509568</v>
+        <v>1253.54310976929</v>
       </c>
       <c r="S2">
-        <v>0.0009367395329500469</v>
+        <v>0.003618401345601632</v>
       </c>
       <c r="T2">
-        <v>0.0009367395329500467</v>
+        <v>0.003618401345601632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H3">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I3">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J3">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.357969</v>
       </c>
       <c r="O3">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="P3">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="Q3">
-        <v>0.146590216792</v>
+        <v>0.5635506610516665</v>
       </c>
       <c r="R3">
-        <v>1.319311951128</v>
+        <v>5.071955949464999</v>
       </c>
       <c r="S3">
-        <v>4.646837393905669E-06</v>
+        <v>1.464039975119328E-05</v>
       </c>
       <c r="T3">
-        <v>4.646837393905667E-06</v>
+        <v>1.464039975119328E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H4">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I4">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J4">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.009103</v>
+        <v>0.9314810000000001</v>
       </c>
       <c r="N4">
-        <v>3.027309</v>
+        <v>2.794443</v>
       </c>
       <c r="O4">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712719</v>
       </c>
       <c r="P4">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712718</v>
       </c>
       <c r="Q4">
-        <v>0.188201745912</v>
+        <v>0.6678672195950001</v>
       </c>
       <c r="R4">
-        <v>1.693815713208</v>
+        <v>6.010804976355001</v>
       </c>
       <c r="S4">
-        <v>5.965902293078144E-06</v>
+        <v>1.735042428544387E-05</v>
       </c>
       <c r="T4">
-        <v>5.965902293078142E-06</v>
+        <v>1.735042428544387E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H5">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I5">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J5">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01118333333333334</v>
+        <v>0.06826133333333334</v>
       </c>
       <c r="N5">
-        <v>0.03355</v>
+        <v>0.204784</v>
       </c>
       <c r="O5">
-        <v>6.978628805232043E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="P5">
-        <v>6.978628805232041E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="Q5">
-        <v>0.0020857364</v>
+        <v>0.04894303469333333</v>
       </c>
       <c r="R5">
-        <v>0.0187716276</v>
+        <v>0.44048731224</v>
       </c>
       <c r="S5">
-        <v>6.611681263219967E-08</v>
+        <v>1.271483901038718E-06</v>
       </c>
       <c r="T5">
-        <v>6.611681263219965E-08</v>
+        <v>1.271483901038718E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>574.431976</v>
       </c>
       <c r="I6">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J6">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>158.44488</v>
+        <v>194.2587713333333</v>
       </c>
       <c r="N6">
-        <v>475.33464</v>
+        <v>582.776314</v>
       </c>
       <c r="O6">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="P6">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="Q6">
-        <v>30338.60183516095</v>
+        <v>37196.14995744627</v>
       </c>
       <c r="R6">
-        <v>273047.4165164486</v>
+        <v>334765.3496170164</v>
       </c>
       <c r="S6">
-        <v>0.9617186779011218</v>
+        <v>0.9663133099091833</v>
       </c>
       <c r="T6">
-        <v>0.9617186779011216</v>
+        <v>0.9663133099091832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>574.431976</v>
       </c>
       <c r="I7">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J7">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.357969</v>
       </c>
       <c r="O7">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="P7">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="Q7">
         <v>150.4991991129715</v>
@@ -883,10 +883,10 @@
         <v>1354.492792016744</v>
       </c>
       <c r="S7">
-        <v>0.004770750200767675</v>
+        <v>0.003909796562276288</v>
       </c>
       <c r="T7">
-        <v>0.004770750200767673</v>
+        <v>0.003909796562276288</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>574.431976</v>
       </c>
       <c r="I8">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J8">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.009103</v>
+        <v>0.9314810000000001</v>
       </c>
       <c r="N8">
-        <v>3.027309</v>
+        <v>2.794443</v>
       </c>
       <c r="O8">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712719</v>
       </c>
       <c r="P8">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712718</v>
       </c>
       <c r="Q8">
-        <v>193.2203434258427</v>
+        <v>178.3574904788187</v>
       </c>
       <c r="R8">
-        <v>1738.983090832584</v>
+        <v>1605.217414309368</v>
       </c>
       <c r="S8">
-        <v>0.006124989352928639</v>
+        <v>0.004633523017001937</v>
       </c>
       <c r="T8">
-        <v>0.006124989352928638</v>
+        <v>0.004633523017001936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>574.431976</v>
       </c>
       <c r="I9">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J9">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01118333333333334</v>
+        <v>0.06826133333333334</v>
       </c>
       <c r="N9">
-        <v>0.03355</v>
+        <v>0.204784</v>
       </c>
       <c r="O9">
-        <v>6.978628805232043E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="P9">
-        <v>6.978628805232041E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="Q9">
-        <v>2.141354754977778</v>
+        <v>13.07049753035378</v>
       </c>
       <c r="R9">
-        <v>19.2721927948</v>
+        <v>117.634477773184</v>
       </c>
       <c r="S9">
-        <v>6.787988698568791E-05</v>
+        <v>0.0003395565332746901</v>
       </c>
       <c r="T9">
-        <v>6.787988698568788E-05</v>
+        <v>0.00033955653327469</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H10">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I10">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J10">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>158.44488</v>
+        <v>194.2587713333333</v>
       </c>
       <c r="N10">
-        <v>475.33464</v>
+        <v>582.776314</v>
       </c>
       <c r="O10">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="P10">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="Q10">
-        <v>758.8657846695198</v>
+        <v>803.9623944275509</v>
       </c>
       <c r="R10">
-        <v>6829.792062025679</v>
+        <v>7235.661549847957</v>
       </c>
       <c r="S10">
-        <v>0.02405567016905003</v>
+        <v>0.02088602081910566</v>
       </c>
       <c r="T10">
-        <v>0.02405567016905003</v>
+        <v>0.02088602081910566</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H11">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I11">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J11">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.357969</v>
       </c>
       <c r="O11">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="P11">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="Q11">
-        <v>3.764467902889221</v>
+        <v>3.252909148304777</v>
       </c>
       <c r="R11">
-        <v>33.88021112600299</v>
+        <v>29.27618233474299</v>
       </c>
       <c r="S11">
-        <v>0.0001193317712608632</v>
+        <v>8.450684841114828E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001193317712608631</v>
+        <v>8.450684841114827E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H12">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I12">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J12">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.009103</v>
+        <v>0.9314810000000001</v>
       </c>
       <c r="N12">
-        <v>3.027309</v>
+        <v>2.794443</v>
       </c>
       <c r="O12">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712719</v>
       </c>
       <c r="P12">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712718</v>
       </c>
       <c r="Q12">
-        <v>4.833060808953666</v>
+        <v>3.855041859802334</v>
       </c>
       <c r="R12">
-        <v>43.497547280583</v>
+        <v>34.695376738221</v>
       </c>
       <c r="S12">
-        <v>0.0001532056380401746</v>
+        <v>0.0001001495655772381</v>
       </c>
       <c r="T12">
-        <v>0.0001532056380401746</v>
+        <v>0.000100149565577238</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H13">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I13">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J13">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01118333333333334</v>
+        <v>0.06826133333333334</v>
       </c>
       <c r="N13">
-        <v>0.03355</v>
+        <v>0.204784</v>
       </c>
       <c r="O13">
-        <v>6.978628805232043E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="P13">
-        <v>6.978628805232041E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="Q13">
-        <v>0.05356215376111111</v>
+        <v>0.2825074235608889</v>
       </c>
       <c r="R13">
-        <v>0.48205938385</v>
+        <v>2.542566812048</v>
       </c>
       <c r="S13">
-        <v>1.697893791564673E-06</v>
+        <v>7.339218812897282E-06</v>
       </c>
       <c r="T13">
-        <v>1.697893791564673E-06</v>
+        <v>7.339218812897282E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H14">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I14">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J14">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>158.44488</v>
+        <v>194.2587713333333</v>
       </c>
       <c r="N14">
-        <v>475.33464</v>
+        <v>582.776314</v>
       </c>
       <c r="O14">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="P14">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="Q14">
-        <v>63.64075924095999</v>
+        <v>2.827630675528</v>
       </c>
       <c r="R14">
-        <v>572.76683316864</v>
+        <v>25.448676079752</v>
       </c>
       <c r="S14">
-        <v>0.002017380602124736</v>
+        <v>7.345860150569719E-05</v>
       </c>
       <c r="T14">
-        <v>0.002017380602124736</v>
+        <v>7.345860150569719E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H15">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I15">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J15">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.357969</v>
       </c>
       <c r="O15">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="P15">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="Q15">
-        <v>0.3156995615271111</v>
+        <v>0.011440865588</v>
       </c>
       <c r="R15">
-        <v>2.841296053744</v>
+        <v>0.102967790292</v>
       </c>
       <c r="S15">
-        <v>1.000752000950628E-05</v>
+        <v>2.97220564687856E-07</v>
       </c>
       <c r="T15">
-        <v>1.000752000950627E-05</v>
+        <v>2.97220564687856E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H16">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I16">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J16">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.009103</v>
+        <v>0.9314810000000001</v>
       </c>
       <c r="N16">
-        <v>3.027309</v>
+        <v>2.794443</v>
       </c>
       <c r="O16">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712719</v>
       </c>
       <c r="P16">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712718</v>
       </c>
       <c r="Q16">
-        <v>0.4053149655093334</v>
+        <v>0.013558637436</v>
       </c>
       <c r="R16">
-        <v>3.647834689584001</v>
+        <v>0.122027736924</v>
       </c>
       <c r="S16">
-        <v>1.284828400732089E-05</v>
+        <v>3.522378481006437E-07</v>
       </c>
       <c r="T16">
-        <v>1.284828400732089E-05</v>
+        <v>3.522378481006436E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H17">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I17">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J17">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01118333333333334</v>
+        <v>0.06826133333333334</v>
       </c>
       <c r="N17">
-        <v>0.03355</v>
+        <v>0.204784</v>
       </c>
       <c r="O17">
-        <v>6.978628805232043E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="P17">
-        <v>6.978628805232041E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="Q17">
-        <v>0.004491882755555556</v>
+        <v>0.000993611968</v>
       </c>
       <c r="R17">
-        <v>0.0404269448</v>
+        <v>0.008942507712000001</v>
       </c>
       <c r="S17">
-        <v>1.423904624356536E-07</v>
+        <v>2.581289920225326E-08</v>
       </c>
       <c r="T17">
-        <v>1.423904624356536E-07</v>
+        <v>2.581289920225326E-08</v>
       </c>
     </row>
   </sheetData>
